--- a/vsCoreItextsharp/OpenXMLSDKTableExport/test.xlsx
+++ b/vsCoreItextsharp/OpenXMLSDKTableExport/test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf0256d82787540d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R42213e522b794ec7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,7 +12,7 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>x</x:v>
+        <x:v>dummy text to show</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
